--- a/rnaSample/rnaSample_J.PLAGGENBERG_10.11.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_10.11.19.xlsx
@@ -1,12 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/rnaSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4B8C7F-6AED-9349-82D9-2D948E55D1E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="8340" yWindow="460" windowWidth="10000" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,24 +98,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,54 +134,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -341,20 +373,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,15 +443,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
+      <c r="C2" s="8">
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -423,7 +460,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
@@ -458,15 +495,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
-        <v>2.0</v>
+      <c r="C3" s="8">
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
@@ -475,7 +512,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -496,15 +533,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
-        <v>3.0</v>
+      <c r="C4" s="8">
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
@@ -513,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
@@ -534,15 +571,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
-        <v>4.0</v>
+      <c r="C5" s="8">
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
@@ -551,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -572,15 +609,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6">
-        <v>5.0</v>
+      <c r="C6" s="8">
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>14</v>
@@ -589,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>16</v>
@@ -610,15 +647,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
-        <v>6.0</v>
+      <c r="C7" s="8">
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>14</v>
@@ -627,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>16</v>
@@ -648,15 +685,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
-        <v>7.0</v>
+      <c r="C8" s="8">
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
@@ -665,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>16</v>
@@ -686,15 +723,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
-        <v>8.0</v>
+      <c r="C9" s="8">
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>14</v>
@@ -703,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
@@ -724,15 +761,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6">
-        <v>9.0</v>
+      <c r="C10" s="8">
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
@@ -741,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>16</v>
@@ -762,15 +799,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
-        <v>10.0</v>
+      <c r="C11" s="8">
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
@@ -779,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>16</v>
@@ -800,15 +837,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
-        <v>11.0</v>
+      <c r="C12" s="8">
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
@@ -817,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>16</v>
@@ -838,15 +875,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6">
-        <v>12.0</v>
+      <c r="C13" s="8">
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
@@ -855,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>
@@ -877,6 +914,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rnaSample/rnaSample_J.PLAGGENBERG_10.11.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_10.11.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,6 +116,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,14 +200,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,8 +242,8 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,7 +258,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -294,37 +304,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="b">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="b">
+      <c r="K2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -352,7 +365,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -361,22 +374,25 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="b">
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="6" t="b">
+      <c r="K3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -390,7 +406,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -399,22 +415,25 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="b">
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="6" t="b">
+      <c r="K4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -428,7 +447,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -437,22 +456,25 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="b">
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="b">
+      <c r="K5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -466,7 +488,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -475,22 +497,25 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="K6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -504,7 +529,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -513,22 +538,25 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="b">
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="6" t="b">
+      <c r="K7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -542,7 +570,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -551,22 +579,25 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="b">
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="6" t="b">
+      <c r="K8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -580,7 +611,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -589,22 +620,25 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="b">
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="6" t="b">
+      <c r="K9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -618,7 +652,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -627,22 +661,25 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="b">
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6" t="b">
+      <c r="K10" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -656,7 +693,7 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -665,22 +702,25 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="b">
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="6" t="b">
+      <c r="K11" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -694,7 +734,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -703,22 +743,25 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="b">
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="6" t="b">
+      <c r="K12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -732,7 +775,7 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -741,22 +784,25 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="b">
+      <c r="F13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="6" t="b">
+      <c r="K13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_10.11.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_10.11.19.xlsx
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,12 +116,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -186,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,18 +194,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,7 +233,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,7 +248,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -304,39 +294,38 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -365,7 +354,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -374,24 +363,23 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -406,7 +394,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -415,24 +403,23 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -447,7 +434,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -456,24 +443,23 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -488,7 +474,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -497,24 +483,23 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -529,7 +514,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -538,24 +523,23 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -570,7 +554,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -579,24 +563,23 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -611,7 +594,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -620,24 +603,23 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -652,7 +634,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3" t="n">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -661,24 +643,23 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -693,7 +674,7 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -702,24 +683,23 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -734,7 +714,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -743,24 +723,23 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -775,7 +754,7 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -784,24 +763,23 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="n">
+      <c r="F13" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
